--- a/data_file/db_structure.xlsx
+++ b/data_file/db_structure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/x17070xx/Desktop/研究室/研究/a_画像処理チャレンジ/aitpictures/data_file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147EB9D7-FEFD-794F-B40F-D5ED1205107F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9006C9E5-B1D3-5F42-A7AE-46141F037A4E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="14400" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="10000" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>問題関連</t>
   </si>
@@ -60,13 +60,6 @@
     <t>画像処理チャレンジのデータベース</t>
     <rPh sb="0" eb="4">
       <t xml:space="preserve">ガゾウショリチャレンジノデータベース </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>添削関連</t>
-    <rPh sb="0" eb="4">
-      <t xml:space="preserve">テンサクカンレン </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -656,7 +649,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -674,9 +667,6 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
       <c r="H3" t="s">
         <v>5</v>
       </c>
@@ -686,37 +676,37 @@
     </row>
     <row r="4" spans="1:10">
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I4"/>
     </row>
     <row r="5" spans="1:10">
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I5"/>
     </row>
     <row r="6" spans="1:10">
       <c r="C6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6"/>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I7"/>
       <c r="J7" s="1"/>
@@ -749,13 +739,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
-        <v>30</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -763,10 +753,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="3"/>
     </row>
@@ -822,16 +812,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -839,16 +829,16 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -859,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
@@ -876,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
@@ -893,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -910,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -941,13 +931,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
-        <v>30</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -955,10 +945,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="3"/>
     </row>
@@ -1015,19 +1005,19 @@
   <sheetData>
     <row r="1" spans="1:11" ht="21">
       <c r="B1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K1" t="s">
         <v>2</v>
@@ -1038,16 +1028,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>

--- a/data_file/db_structure.xlsx
+++ b/data_file/db_structure.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/x17070xx/Desktop/研究室/研究/a_画像処理チャレンジ/aitpictures/data_file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9006C9E5-B1D3-5F42-A7AE-46141F037A4E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F36587E-40B8-B949-B721-AAFADB0B17A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="10000" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="10000" windowHeight="16500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体" sheetId="1" r:id="rId1"/>
-    <sheet name="output_value_tb" sheetId="9" r:id="rId2"/>
+    <sheet name="problem_tb" sheetId="5" r:id="rId2"/>
     <sheet name="image_tb" sheetId="13" r:id="rId3"/>
-    <sheet name="input_value_tb" sheetId="14" r:id="rId4"/>
-    <sheet name="problem_tb" sheetId="5" r:id="rId5"/>
+    <sheet name="input_value_tb" sheetId="14" state="hidden" r:id="rId4"/>
+    <sheet name="answer_value_tb" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>問題関連</t>
   </si>
@@ -123,10 +123,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>problem_answer</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>example_judgement</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -138,16 +134,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>0: 問題，1: 回答</t>
-    <rPh sb="3" eb="5">
-      <t>モンダ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カイト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>0: 例題，1: 判定</t>
     <rPh sb="3" eb="5">
       <t>レイダ</t>
@@ -177,16 +163,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>回答（文字）</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">カイトウ </t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t xml:space="preserve">モジ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>いらない！phpで直接ファイル参照</t>
     <rPh sb="9" eb="11">
       <t xml:space="preserve">チョクセツ </t>
@@ -197,13 +173,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1: 出力</t>
-    <rPh sb="3" eb="5">
-      <t>シュ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>0: 入力</t>
     <rPh sb="3" eb="5">
       <t>ニュウ</t>
@@ -250,15 +219,56 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>output_value</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>input_value</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>output_value_tb</t>
+    <t>answer_value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正解（文字）</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">セイカイ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">モジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザの解答は直接参照</t>
+    <rPh sb="4" eb="6">
+      <t xml:space="preserve">カイトウ </t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t xml:space="preserve">チョクセツサンショウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字入力</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">モジニュウリョク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>answer_value_tb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0: 入力，1: 出力</t>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ニュウリョク </t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t xml:space="preserve">シュツリョク </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>input_output</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -648,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -688,25 +698,25 @@
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I5"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" hidden="1">
       <c r="C6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I6"/>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I7"/>
       <c r="J7" s="1"/>
@@ -724,272 +734,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
-  <cols>
-    <col min="2" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{903EEC79-B8E5-9348-88E0-E0AF34A75AC6}">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <cols>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4555F41A-59A0-E947-8C67-6018EB9E852F}">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="4" width="14.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -1008,7 +756,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>4</v>
@@ -1034,7 +782,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -1069,4 +817,271 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{903EEC79-B8E5-9348-88E0-E0AF34A75AC6}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4555F41A-59A0-E947-8C67-6018EB9E852F}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="4" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
+  <cols>
+    <col min="2" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/data_file/db_structure.xlsx
+++ b/data_file/db_structure.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/x17070xx/Desktop/研究室/研究/a_画像処理チャレンジ/aitpictures/data_file/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/aitpictures_20/data_file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F36587E-40B8-B949-B721-AAFADB0B17A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF79C1D-4865-4A45-9BF1-CAEC4C8AE420}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="10000" windowHeight="16500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全体" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,15 @@
     <sheet name="image_tb" sheetId="13" r:id="rId3"/>
     <sheet name="input_value_tb" sheetId="14" state="hidden" r:id="rId4"/>
     <sheet name="answer_value_tb" sheetId="9" r:id="rId5"/>
+    <sheet name="user_tb" sheetId="16" r:id="rId6"/>
+    <sheet name="answer_history_tb" sheetId="15" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="69">
   <si>
     <t>問題関連</t>
   </si>
@@ -144,32 +146,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>images/problem1/img1.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>images/problem1/img2.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>images/problem1/img3.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>problem_tbのid</t>
   </si>
   <si>
     <t>problem_tbのid</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>いらない！phpで直接ファイル参照</t>
-    <rPh sb="9" eb="11">
-      <t xml:space="preserve">チョクセツ </t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t xml:space="preserve">チョクセツサンショウ </t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -269,6 +249,159 @@
   </si>
   <si>
     <t>input_output</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/problem_1/example/input/img1.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/problem_1/example/output/img1.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/problem_1/judgement/input/img1.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザの出力画像は上のやつ（例のid=3）と比較する</t>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">ガゾウ </t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t xml:space="preserve">ウエノヤツ </t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t xml:space="preserve">レイ </t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t xml:space="preserve">ヒカクスル </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>images/problem_1/judgement/output/img1.jpg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答履歴</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">カイトウリレキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>answer_history_tb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_tb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login_password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>display_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>create_on</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>last_login</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示名</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ヒョウジメイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最後ログインしたtimestamp</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">サイゴ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント作成したtimestamp</t>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">サクセイシタ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x17070</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aaaa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nakane</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_tbのid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>problem_idのid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>answer_time</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回答したtimestamp</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カイトウシタ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正誤判定 0:正解,1:不正解</t>
+    <rPh sb="2" eb="4">
+      <t xml:space="preserve">フセイカイ </t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t xml:space="preserve">フセイカイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>right_wrong</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -659,7 +792,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -698,33 +831,45 @@
         <v>9</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I5"/>
     </row>
     <row r="6" spans="1:10" hidden="1">
       <c r="C6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I6"/>
     </row>
     <row r="7" spans="1:10">
       <c r="C7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I7"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10">
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
       <c r="I8"/>
     </row>
     <row r="9" spans="1:10">
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
       <c r="I9"/>
     </row>
   </sheetData>
@@ -737,7 +882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -756,7 +901,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>4</v>
@@ -782,7 +927,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -821,16 +966,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{903EEC79-B8E5-9348-88E0-E0AF34A75AC6}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="58.7109375" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
@@ -838,16 +983,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -861,10 +1006,10 @@
         <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -875,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
@@ -892,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -909,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -926,13 +1071,18 @@
         <v>0</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
         <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="C7" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -957,13 +1107,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -974,7 +1124,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D2" s="3"/>
     </row>
@@ -1029,13 +1179,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1046,7 +1196,7 @@
         <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D2" s="3"/>
     </row>
@@ -1084,4 +1234,218 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E81B65E4-265B-994D-BD1C-027ADF0BD8A9}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78200D80-1B9E-AE41-82D2-91D20B66809D}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>